--- a/Driver_EPPlus/Calendrier.xlsx
+++ b/Driver_EPPlus/Calendrier.xlsx
@@ -14,12 +14,12 @@
     <sheet name="Charger" sheetId="4" r:id="rId5"/>
     <sheet name="Absence" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1935" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Reduit</t>
   </si>
@@ -72,10 +72,10 @@
     <t>7h</t>
   </si>
   <si>
-    <t>8h</t>
+    <t>PRE</t>
   </si>
   <si>
-    <t>PRE</t>
+    <t>8h</t>
   </si>
   <si>
     <t>9h</t>
@@ -111,6 +111,9 @@
     <t>18h</t>
   </si>
   <si>
+    <t>PRE+</t>
+  </si>
+  <si>
     <t>19h</t>
   </si>
   <si>
@@ -141,13 +144,10 @@
     <t>Mode</t>
   </si>
   <si>
-    <t>Conger</t>
-  </si>
-  <si>
     <t>Charger</t>
   </si>
   <si>
-    <t>PRE+</t>
+    <t>Conger</t>
   </si>
   <si>
     <t>Absence</t>
@@ -157,7 +157,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,86 +406,86 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="33">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="6" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="3" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="2" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="8" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="9" applyBorder="1" xfId="0"/>
+    <xf fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="10" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" applyFont="1" fillId="5" applyFill="1" borderId="7" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="11" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="12" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="5" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="6" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="7" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="8" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
+    <xf fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="1" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="9" applyFill="1" borderId="4" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="3" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="13" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" applyFont="1" fillId="4" applyFill="1" borderId="5" applyBorder="1" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -799,15 +800,15 @@
     <col min="1" max="1" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -815,15 +816,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="13">
         <v>3</v>
       </c>
@@ -831,7 +832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" s="13">
         <v>4</v>
       </c>
@@ -839,7 +840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" s="13">
         <v>5</v>
       </c>
@@ -847,23 +848,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" s="13">
         <v>6</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="13">
         <v>7</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="13">
         <v>8</v>
       </c>
@@ -871,23 +872,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" s="13">
         <v>9</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="13">
         <v>10</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -895,47 +896,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" s="13">
         <v>12</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="13">
         <v>13</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="13">
         <v>14</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="13">
         <v>15</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="13">
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -943,23 +944,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" s="13">
         <v>18</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="13">
         <v>19</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -967,7 +968,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" s="13">
         <v>21</v>
       </c>
@@ -975,15 +976,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" s="13">
         <v>22</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="13">
         <v>23</v>
       </c>
@@ -991,47 +992,47 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" s="13">
         <v>24</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="13">
         <v>25</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="13">
         <v>26</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="13">
         <v>27</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="13">
         <v>28</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="13">
         <v>29</v>
       </c>
@@ -1039,23 +1040,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="A31" s="13">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="13">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="13">
         <v>32</v>
       </c>
@@ -1063,7 +1064,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34">
       <c r="A34" s="13">
         <v>33</v>
       </c>
@@ -1071,15 +1072,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="A35" s="13">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="13">
         <v>35</v>
       </c>
@@ -1087,31 +1088,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="A37" s="13">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="13">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="13">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="13">
         <v>39</v>
       </c>
@@ -1119,7 +1120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="A41" s="13">
         <v>40</v>
       </c>
@@ -1127,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42">
       <c r="A42" s="13">
         <v>41</v>
       </c>
@@ -1135,31 +1136,31 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="A43" s="13">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="13">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="13">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="13">
         <v>45</v>
       </c>
@@ -1167,15 +1168,15 @@
         <v>41</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="A47" s="13">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="13">
         <v>47</v>
       </c>
@@ -1183,7 +1184,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="A49" s="13">
         <v>48</v>
       </c>
@@ -1191,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50">
       <c r="A50" s="13">
         <v>49</v>
       </c>
@@ -1199,7 +1200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51">
       <c r="A51" s="13">
         <v>50</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52">
       <c r="A52" s="13">
         <v>51</v>
       </c>
@@ -1215,25 +1216,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" ht="15.75">
       <c r="A53" s="14">
         <v>52</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75">
       <c r="A54" s="14">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -1247,12 +1249,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>1</v>
@@ -1276,8 +1278,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -1302,7 +1304,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1325,8 +1327,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1351,7 +1353,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -1374,8 +1376,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1400,7 +1402,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -1423,8 +1425,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1449,7 +1451,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -1472,8 +1474,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1498,7 +1500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1521,8 +1523,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1547,7 +1549,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1570,8 +1572,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -1596,7 +1598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -1619,8 +1621,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1645,718 +1647,718 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="B33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -2374,13 +2376,13 @@
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
@@ -2403,9 +2405,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -2429,7 +2431,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
@@ -2452,9 +2454,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>9</v>
@@ -2481,6 +2483,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -2494,12 +2497,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" ht="15.75">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>1</v>
@@ -2523,8 +2526,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="31" t="s">
@@ -2549,7 +2552,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -2572,8 +2575,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2598,7 +2601,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -2621,8 +2624,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2647,7 +2650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -2670,8 +2673,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2696,7 +2699,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -2719,8 +2722,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -2745,7 +2748,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2768,8 +2771,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -2794,7 +2797,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -2817,8 +2820,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2843,7 +2846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -2866,8 +2869,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -2892,237 +2895,237 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
@@ -3131,21 +3134,21 @@
         <v>23</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="B27" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -3154,24 +3157,24 @@
         <v>23</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>9</v>
@@ -3180,21 +3183,21 @@
         <v>23</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="B29" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -3203,24 +3206,24 @@
         <v>23</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>9</v>
@@ -3229,21 +3232,21 @@
         <v>23</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="B31" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
@@ -3252,24 +3255,24 @@
         <v>23</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>9</v>
@@ -3278,21 +3281,21 @@
         <v>23</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
@@ -3301,24 +3304,24 @@
         <v>23</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
@@ -3327,283 +3330,283 @@
         <v>23</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="B35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="B37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H40" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="B43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H43" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="B45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -3621,13 +3624,13 @@
         <v>9</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
@@ -3650,9 +3653,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -3676,7 +3679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
@@ -3699,9 +3702,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>35</v>
+    <row r="50" ht="15.75">
+      <c r="A50" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>9</v>
@@ -3728,6 +3731,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -3741,10 +3745,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -3770,8 +3774,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -3796,7 +3800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -3819,8 +3823,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -3845,7 +3849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -3868,8 +3872,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3894,7 +3898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -3917,8 +3921,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -3943,7 +3947,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -3966,8 +3970,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3992,7 +3996,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -4015,8 +4019,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -4041,7 +4045,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -4064,8 +4068,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -4090,7 +4094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -4113,8 +4117,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -4139,237 +4143,237 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
@@ -4378,21 +4382,21 @@
         <v>23</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="B27" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -4401,24 +4405,24 @@
         <v>23</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>9</v>
@@ -4427,21 +4431,21 @@
         <v>23</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="B29" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -4450,24 +4454,24 @@
         <v>23</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>9</v>
@@ -4476,21 +4480,21 @@
         <v>23</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="B31" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
@@ -4499,24 +4503,24 @@
         <v>23</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>9</v>
@@ -4525,21 +4529,21 @@
         <v>23</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="B33" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
@@ -4548,24 +4552,24 @@
         <v>23</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="32" t="s">
         <v>23</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
@@ -4574,283 +4578,283 @@
         <v>23</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="B35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="B37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="B39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H40" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="B41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="B43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="B45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -4868,13 +4872,13 @@
         <v>9</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
@@ -4897,9 +4901,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -4923,7 +4927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
@@ -4946,9 +4950,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>9</v>
@@ -4974,6 +4978,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -4987,10 +4992,10 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="8" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="8" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="24" t="s">
         <v>41</v>
       </c>
@@ -5016,8 +5021,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -5042,7 +5047,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -5065,8 +5070,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -5091,7 +5096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -5114,8 +5119,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -5140,7 +5145,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -5163,8 +5168,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -5189,7 +5194,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -5212,8 +5217,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -5238,7 +5243,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -5261,8 +5266,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -5287,7 +5292,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -5310,8 +5315,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -5336,7 +5341,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -5359,8 +5364,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -5385,7 +5390,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
@@ -5393,25 +5398,25 @@
         <v>9</v>
       </c>
       <c r="D17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
       </c>
@@ -5419,7 +5424,7 @@
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
@@ -5428,13 +5433,13 @@
         <v>9</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -5442,7 +5447,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -5451,14 +5456,14 @@
         <v>9</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -5468,7 +5473,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
@@ -5477,13 +5482,13 @@
         <v>9</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -5491,7 +5496,7 @@
         <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
@@ -5500,14 +5505,14 @@
         <v>9</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -5517,7 +5522,7 @@
         <v>9</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>9</v>
@@ -5526,13 +5531,13 @@
         <v>9</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -5540,7 +5545,7 @@
         <v>9</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>9</v>
@@ -5549,14 +5554,14 @@
         <v>9</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -5566,7 +5571,7 @@
         <v>9</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>9</v>
@@ -5575,13 +5580,13 @@
         <v>9</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
@@ -5589,7 +5594,7 @@
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>9</v>
@@ -5598,14 +5603,14 @@
         <v>9</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -5615,7 +5620,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>9</v>
@@ -5624,13 +5629,13 @@
         <v>9</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
@@ -5638,7 +5643,7 @@
         <v>9</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>9</v>
@@ -5647,24 +5652,24 @@
         <v>9</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>9</v>
@@ -5673,21 +5678,21 @@
         <v>9</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>9</v>
@@ -5696,24 +5701,24 @@
         <v>9</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>9</v>
@@ -5722,21 +5727,21 @@
         <v>9</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>9</v>
@@ -5745,24 +5750,24 @@
         <v>9</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>9</v>
@@ -5771,21 +5776,21 @@
         <v>9</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>9</v>
@@ -5794,309 +5799,309 @@
         <v>9</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="B35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="B37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="B39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="H40" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="B41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="B43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="B45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -6114,13 +6119,13 @@
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
@@ -6143,9 +6148,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -6169,7 +6174,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
@@ -6192,9 +6197,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>9</v>
@@ -6220,6 +6225,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
@@ -6236,7 +6242,7 @@
     <col min="1" max="8" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" s="27" t="s">
         <v>43</v>
       </c>
@@ -6262,8 +6268,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -6288,7 +6294,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
@@ -6311,8 +6317,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -6337,7 +6343,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
@@ -6360,8 +6366,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -6386,7 +6392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -6409,8 +6415,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -6435,7 +6441,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
@@ -6458,8 +6464,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -6484,7 +6490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -6507,8 +6513,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -6533,7 +6539,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
@@ -6556,8 +6562,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -6582,7 +6588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="B15" s="3" t="s">
         <v>9</v>
       </c>
@@ -6605,8 +6611,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -6631,7 +6637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="B17" s="3" t="s">
         <v>9</v>
       </c>
@@ -6654,9 +6660,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>18</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>9</v>
@@ -6680,7 +6686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
@@ -6703,8 +6709,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -6729,7 +6735,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="B21" s="3" t="s">
         <v>9</v>
       </c>
@@ -6752,8 +6758,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -6778,7 +6784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="B23" s="3" t="s">
         <v>9</v>
       </c>
@@ -6801,8 +6807,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -6827,7 +6833,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="B25" s="3" t="s">
         <v>9</v>
       </c>
@@ -6850,8 +6856,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -6876,7 +6882,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="B27" s="3" t="s">
         <v>9</v>
       </c>
@@ -6899,8 +6905,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -6925,7 +6931,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="B29" s="3" t="s">
         <v>9</v>
       </c>
@@ -6948,8 +6954,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -6974,7 +6980,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31">
       <c r="B31" s="3" t="s">
         <v>9</v>
       </c>
@@ -6997,8 +7003,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -7023,7 +7029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33">
       <c r="B33" s="3" t="s">
         <v>9</v>
       </c>
@@ -7046,8 +7052,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -7072,7 +7078,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35">
       <c r="B35" s="3" t="s">
         <v>9</v>
       </c>
@@ -7095,8 +7101,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -7121,7 +7127,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37">
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
@@ -7144,8 +7150,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -7170,7 +7176,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39">
       <c r="B39" s="3" t="s">
         <v>9</v>
       </c>
@@ -7193,9 +7199,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
+    <row r="40">
+      <c r="A40" s="0" t="s">
+        <v>31</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>9</v>
@@ -7219,7 +7225,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41">
       <c r="B41" s="3" t="s">
         <v>9</v>
       </c>
@@ -7242,9 +7248,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>31</v>
+    <row r="42">
+      <c r="A42" s="0" t="s">
+        <v>32</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>9</v>
@@ -7268,7 +7274,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43">
       <c r="B43" s="3" t="s">
         <v>9</v>
       </c>
@@ -7291,9 +7297,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>32</v>
+    <row r="44">
+      <c r="A44" s="0" t="s">
+        <v>33</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>9</v>
@@ -7317,7 +7323,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45">
       <c r="B45" s="3" t="s">
         <v>9</v>
       </c>
@@ -7340,9 +7346,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>33</v>
+    <row r="46">
+      <c r="A46" s="0" t="s">
+        <v>34</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>9</v>
@@ -7366,7 +7372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47">
       <c r="B47" s="3" t="s">
         <v>9</v>
       </c>
@@ -7389,9 +7395,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>34</v>
+    <row r="48">
+      <c r="A48" s="0" t="s">
+        <v>35</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>9</v>
@@ -7415,7 +7421,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49">
       <c r="B49" s="3" t="s">
         <v>9</v>
       </c>
@@ -7438,9 +7444,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>35</v>
+    <row r="50">
+      <c r="A50" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>9</v>
@@ -7466,5 +7472,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>